--- a/docs/assets/disciplinas/LOM3227.xlsx
+++ b/docs/assets/disciplinas/LOM3227.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="38">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Introduzir métodos de simulação numérica de processos determinísticos e aleatórios e aos métodos de cálculos de equação de onda. Fornecer meios para que o estudante receba as informações básicas, mas necessárias para o uso de ferramentas computacionais modernas.</t>
+    <t>519033 - Carlos Yujiro Shigue</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -79,64 +79,46 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>519033 - Carlos Yujiro Shigue</t>
+    <t>Programa resumido:</t>
+  </si>
+  <si>
+    <t>Short syllabus:</t>
+  </si>
+  <si>
+    <t>Programa:</t>
   </si>
   <si>
     <t>1176388 - Luiz Tadeu Fernandes Eleno</t>
   </si>
   <si>
+    <t>Syllabus:</t>
+  </si>
+  <si>
+    <t>Avaliação:</t>
+  </si>
+  <si>
+    <t>Método:</t>
+  </si>
+  <si>
     <t>7797767 - Viktor Pastoukhov</t>
   </si>
   <si>
-    <t>Programa resumido:</t>
-  </si>
-  <si>
-    <t>Simulação numérica em sistemas determinísticos e estocásticos. Métodos de Monte Carlo. Caminhadas aleatórias. Fractais. Introdução à análise espectral por transformadas de Fourier. Revisão das soluções de equações diferenciais ordinárias e parciais. Solução numérica de equações diferenciais parciais.</t>
-  </si>
-  <si>
-    <t>Short syllabus:</t>
-  </si>
-  <si>
-    <t>Programa:</t>
-  </si>
-  <si>
-    <t>Simulação numérica em sistemas determinísticos. Simulações numéricas em sistemas estocásticos. Números pseudo-aleatórios. O problema do caminho aleatório em d-dimensões. O problema de difusão de partículas num reticulado. Integração de Monte Carlo. Caminhadas aleatórias. Fractais. Introdução à análise espectral por transformadas de Fourier. Revisão das soluções de equações diferenciais parciais. Solução numérica da equação de onda livre unidimensional - cálculo da propagação de ondas, reflexão e refração. Cálculo dos modos normais da equação de ondas mediante análise, via transformada de Fourier, da propagação dos pulsos - propagação em meios com condições de contorno aberta ou fechada. Decomposição espectral de pacotes ondulatórios. Cordas vibrantes reais (efeitos de amortecimento e de dispersão. Cálculo dos modos normais.</t>
-  </si>
-  <si>
-    <t>Syllabus:</t>
-  </si>
-  <si>
-    <t>Avaliação:</t>
-  </si>
-  <si>
-    <t>Método:</t>
+    <t>Critério:</t>
   </si>
   <si>
     <t>Aulas expositivas, seminários e exercícios comentados.</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>Média aritmética de duas provas sendo a primeira com peso 1 e a segunda com peso 2.</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>Aplicação de uma prova escrita dentro do prazo regimental antes do início do próximo semestre letivo. A nota da segunda avaliação será a média aritmética entre a nota da prova de recuperação e a nota final da primeira avaliação</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>GOULD, H.; TOBOCHNIK, T. An Introduction to Computer Simulation Methods. Addison-Wesley Publishing Company, Nova Iorque, 1987. 
-SCHERER, C. Métodos Computacionais da Física, Editora Livraria da Física, São Paulo, 2005.
-DEVRIES, P. L. A First Course in Computational Physics. John Wiley and Sons, New York, 1994.
-PANG, H. An Introduction to Computational Physics. Cambridge University Press, Cambridge, 1997.
-THIJSSEN, J. M. Computational Physics. Cambridge University Press, Cambridge, 1999. 
-PRESS, W. H.; FLANNERY, B. P.; TEUKOLSKI, S. A.; VETERLING, W. T. Numerical Recipes. Cambridge University Press, 1986.
-KOONIN, S. E. Computational Physics. Benjamin Cummings, 1986.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -503,7 +485,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -628,47 +610,44 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="B14" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="60" customHeight="1">
+      <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
+      <c r="A15" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B15" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="60" customHeight="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="60" customHeight="1">
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="120" customHeight="1">
+    <row r="18" spans="1:3" ht="60" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
@@ -679,42 +658,45 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="120" customHeight="1">
+    <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="B19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
+        <v>31</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="120" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="60" customHeight="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="60" customHeight="1">
-      <c r="A23" s="1" t="s">
         <v>35</v>
       </c>
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
       <c r="B23" s="2" t="s">
         <v>36</v>
       </c>
@@ -722,36 +704,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="120" customHeight="1">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="1:3" ht="30" customHeight="1">
+      <c r="B24" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="C24" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="30" customHeight="1">
-      <c r="B26" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="30" customHeight="1">
-      <c r="B27" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/docs/assets/disciplinas/LOM3227.xlsx
+++ b/docs/assets/disciplinas/LOM3227.xlsx
@@ -128,7 +128,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">LOM3260 -  Computação Científica em Python  (Requisito)
+    <t xml:space="preserve">LOM3261 -  Métodos Numéricos e Aplicações  (Requisito)
 </t>
   </si>
 </sst>

--- a/docs/assets/disciplinas/LOM3227.xlsx
+++ b/docs/assets/disciplinas/LOM3227.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="40">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -58,7 +58,7 @@
     <t>Ativação:</t>
   </si>
   <si>
-    <t>01/01/2020</t>
+    <t>01/01/2023</t>
   </si>
   <si>
     <t>Semestre ideal:</t>
@@ -70,12 +70,15 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>519033 - Carlos Yujiro Shigue</t>
+    <t>7290967 - Emerson Gonçalves de Melo</t>
   </si>
   <si>
     <t>Objectives:</t>
   </si>
   <si>
+    <t>Provide means for the student to acquire knowledge and practice in the use of modern computational tools applied to physical problems.</t>
+  </si>
+  <si>
     <t>Docentes responsáveis:</t>
   </si>
   <si>
@@ -85,22 +88,25 @@
     <t>Short syllabus:</t>
   </si>
   <si>
+    <t>Numerical simulation in deterministic and stochastic systems. Monte Carlo methods. Random walks. Fractals. Introduction to spectral analysis by Fourier transforms. Review of solutions of ordinary and partial differential equations. Numerical solution of partial differential equations.</t>
+  </si>
+  <si>
     <t>Programa:</t>
   </si>
   <si>
+    <t>Syllabus:</t>
+  </si>
+  <si>
+    <t>• Numerical simulation in deterministic systems. • Numerical simulations in stochastic systems. • Pseudo-random numbers. • Random walks, diffusion and percolation.  • Fractals. • Introduction to spectral analysis by Fourier transforms. • Fast Fourier Transform and applications. • Identification of frequencies and normal modes. • Signal detection and treatment • Image processing. • Numerical solution methods for partial differential equations. • Finite difference method. • Finite Element Method.</t>
+  </si>
+  <si>
+    <t>Avaliação:</t>
+  </si>
+  <si>
+    <t>Método:</t>
+  </si>
+  <si>
     <t>1176388 - Luiz Tadeu Fernandes Eleno</t>
-  </si>
-  <si>
-    <t>Syllabus:</t>
-  </si>
-  <si>
-    <t>Avaliação:</t>
-  </si>
-  <si>
-    <t>Método:</t>
-  </si>
-  <si>
-    <t>7797767 - Viktor Pastoukhov</t>
   </si>
   <si>
     <t>Critério:</t>
@@ -604,112 +610,130 @@
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="B11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="60" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="60" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="120" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="30" customHeight="1">
       <c r="B23" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30" customHeight="1">
       <c r="B24" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/docs/assets/disciplinas/LOM3227.xlsx
+++ b/docs/assets/disciplinas/LOM3227.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="44">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,21 +70,30 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Fornecer meios para que o estudante adquira conhecimento e prática no uso de ferramentas computacionais modernas aplicadas a problemas físicos.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Provide means for the student to acquire knowledge and practice in the use of modern computational tools applied to physical problems.</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>7290967 - Emerson Gonçalves de Melo</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>Provide means for the student to acquire knowledge and practice in the use of modern computational tools applied to physical problems.</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
+    <t>1176388 - Luiz Tadeu Fernandes Eleno</t>
   </si>
   <si>
     <t>Programa resumido:</t>
   </si>
   <si>
+    <t>Simulação numérica em sistemas determinísticos e estocásticos. Métodos de Monte Carlo. Caminhadas aleatórias. Fractais. Introdução à análise espectral por transformadas de Fourier. Revisão das soluções de equações diferenciais ordinárias e parciais. Solução numérica de equações diferenciais parciais.</t>
+  </si>
+  <si>
     <t>Short syllabus:</t>
   </si>
   <si>
@@ -94,6 +103,9 @@
     <t>Programa:</t>
   </si>
   <si>
+    <t>• Simulação numérica em sistemas determinísticos. • Simulações numéricas em sistemas estocásticos. • Números pseudo-aleatórios. • O problema do caminho aleatório, difusão e percolação. • Fractais. • Introdução à análise espectral por transformadas de Fourier. • A Transformada rápida de Fourier e aplicações. • Identificação de frequências e modos normais. • Detecção e tratamento de sinais • Tratamento de imagens. • Métodos de solução numérica de equações diferenciais parciais. • Método das diferenças Finitas.  • Método dos Elementos Finitos.</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -106,25 +118,31 @@
     <t>Método:</t>
   </si>
   <si>
-    <t>1176388 - Luiz Tadeu Fernandes Eleno</t>
+    <t>Aulas expositivas, seminários e exercícios comentados.</t>
   </si>
   <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>Aulas expositivas, seminários e exercícios comentados.</t>
+    <t>Média aritmética de duas provas sendo a primeira com peso 1 e a segunda com peso 2.</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>Média aritmética de duas provas sendo a primeira com peso 1 e a segunda com peso 2.</t>
+    <t>Aplicação de uma prova escrita dentro do prazo regimental antes do início do próximo semestre letivo. A nota da segunda avaliação será a média aritmética entre a nota da prova de recuperação e a nota final da primeira avaliação</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>Aplicação de uma prova escrita dentro do prazo regimental antes do início do próximo semestre letivo. A nota da segunda avaliação será a média aritmética entre a nota da prova de recuperação e a nota final da primeira avaliação</t>
+    <t>GOULD, H.; TOBOCHNIK, T. An Introduction to Computer Simulation Methods. Addison-Wesley Publishing Company, Nova Iorque, 1987. 
+SCHERER, C. Métodos Computacionais da Física, Editora Livraria da Física, São Paulo, 2005.
+DEVRIES, P. L. A First Course in Computational Physics. John Wiley and Sons, New York, 1994.
+PANG, H. An Introduction to Computational Physics. Cambridge University Press, Cambridge, 1997.
+THIJSSEN, J. M. Computational Physics. Cambridge University Press, Cambridge, 1999. 
+PRESS, W. H.; FLANNERY, B. P.; TEUKOLSKI, S. A.; VETERLING, W. T. Numerical Recipes. Cambridge University Press, 1986.
+KOONIN, S. E. Computational Physics. Benjamin Cummings, 1986.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -491,13 +509,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -622,40 +640,34 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="60" customHeight="1">
-      <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="C15" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="120" customHeight="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="60" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
@@ -666,30 +678,30 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="B17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="120" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="60" customHeight="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="3" t="s">
         <v>32</v>
       </c>
     </row>
@@ -704,7 +716,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>35</v>
       </c>
@@ -715,25 +727,47 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" ht="60" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="120" customHeight="1">
+      <c r="A23" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="B23" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="30" customHeight="1">
-      <c r="B24" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="30" customHeight="1">
+      <c r="B25" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="30" customHeight="1">
+      <c r="B26" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
